--- a/COVID-19 Data Analysis/1/New Data/Covid_Protection_Efficacy_By_Country_New.xlsx
+++ b/COVID-19 Data Analysis/1/New Data/Covid_Protection_Efficacy_By_Country_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCNY\Spring 2023\CSc 47400\informative-graphics\COVID-19 Data Analysis\1\New Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F14A8D-AF5B-421C-BAB6-DE9AB2CC11D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E2B19-ACB3-4A68-94AE-C85F52872F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3199,7 +3199,7 @@
   <dimension ref="A1:V228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,11 +3349,11 @@
         <v>4.829699999999999</v>
       </c>
       <c r="S2" s="7">
-        <f t="shared" ref="S2:U2" si="0">($M2-O2)</f>
+        <f>($M2-O2)</f>
         <v>7.6707000000000001</v>
       </c>
       <c r="T2" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S2:U2" si="0">($M2-P2)</f>
         <v>11.079899999999999</v>
       </c>
       <c r="U2" s="7">
